--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>467100</v>
+      </c>
+      <c r="E8" s="3">
         <v>466200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>423500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>491200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>449400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>448600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>410900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>477300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>455700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>451700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>411400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>452200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>436500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E9" s="3">
         <v>143400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>150500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>143900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>114400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>116400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>313200</v>
+      </c>
+      <c r="E10" s="3">
         <v>322800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>280400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>340700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>305500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>328400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>296500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>340700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>319300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>331800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>296600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>332900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>320100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-6100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="E15" s="3">
         <v>15000</v>
       </c>
       <c r="F15" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="3">
         <v>14800</v>
       </c>
       <c r="H15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I15" s="3">
         <v>12400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>418600</v>
+      </c>
+      <c r="E17" s="3">
         <v>402800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>419000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>411200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>399000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>391100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>374800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>404500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>390300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>370900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>398900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>388800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>385300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E18" s="3">
         <v>63400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>57500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>72800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E21" s="3">
         <v>97000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>81900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>101500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>87400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>82800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E22" s="3">
         <v>6800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3300</v>
       </c>
       <c r="K22" s="3">
         <v>3300</v>
       </c>
       <c r="L22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E23" s="3">
         <v>56500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>77300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>70100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>79500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E24" s="3">
         <v>11800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E26" s="3">
         <v>44700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>54100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E27" s="3">
         <v>44700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>63200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>54100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1597,20 +1658,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>25000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>44700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>63200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>68800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>44700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>63200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>68800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E41" s="3">
         <v>107700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>169800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>482300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301500</v>
+      </c>
+      <c r="E43" s="3">
         <v>235500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>281100</v>
       </c>
-      <c r="F43" s="3">
-        <v>294900</v>
-      </c>
       <c r="G43" s="3">
+        <v>306600</v>
+      </c>
+      <c r="H43" s="3">
         <v>194800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>236200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>272100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>212400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>193500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>198600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>188700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>220800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E44" s="3">
         <v>45000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>44800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>47900</v>
       </c>
       <c r="N44" s="3">
         <v>47900</v>
       </c>
       <c r="O44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="P44" s="3">
         <v>49200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E45" s="3">
         <v>58900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>67400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>64700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>124100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>533100</v>
+      </c>
+      <c r="E46" s="3">
         <v>447200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>491200</v>
       </c>
-      <c r="F46" s="3">
-        <v>490800</v>
-      </c>
       <c r="G46" s="3">
+        <v>502500</v>
+      </c>
+      <c r="H46" s="3">
         <v>431400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>448900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>488300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>480000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>475700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>364000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>396800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>359700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>876500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>439400</v>
+      </c>
+      <c r="E48" s="3">
         <v>440600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>439900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>289000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>286200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>286300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>288100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>289900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>273600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>274600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>265300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>252500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>241400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2097700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2086900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2059900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1853900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1902700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1983700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2019200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1908700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1920000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1909500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1906000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E52" s="3">
         <v>97300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>93300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>93000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3324600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3082800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3120100</v>
       </c>
-      <c r="F54" s="3">
-        <v>2937000</v>
-      </c>
       <c r="G54" s="3">
+        <v>2948800</v>
+      </c>
+      <c r="H54" s="3">
         <v>2911600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2680800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2772100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2839500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2858800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2632800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2667100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2606200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3103000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,66 +2749,70 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E57" s="3">
         <v>74400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>85100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>90100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>141000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>210900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
         <v>6300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2689,8 +2823,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,184 +2841,199 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>742900</v>
+      </c>
+      <c r="E59" s="3">
         <v>505000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>666400</v>
       </c>
-      <c r="F59" s="3">
-        <v>779600</v>
-      </c>
       <c r="G59" s="3">
+        <v>791300</v>
+      </c>
+      <c r="H59" s="3">
         <v>593200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>498500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>631700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>784200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>628400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>431300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>529800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>648700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>579200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>814500</v>
+      </c>
+      <c r="E60" s="3">
         <v>585600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>732800</v>
       </c>
-      <c r="F60" s="3">
-        <v>870600</v>
-      </c>
       <c r="G60" s="3">
+        <v>882300</v>
+      </c>
+      <c r="H60" s="3">
         <v>678300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>570100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>675500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>874300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>833000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>582200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>670800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>787900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>790000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>789600</v>
+      </c>
+      <c r="E61" s="3">
         <v>788400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>724300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>478800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>633500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>537300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>507500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>360000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>428200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>563000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>551600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>365000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>865700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>523200</v>
+      </c>
+      <c r="E62" s="3">
         <v>529800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>531000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>406300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>404400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>404100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>415100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>414600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>429300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>440600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>435400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>450200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>435800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2127300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1903800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1988100</v>
       </c>
-      <c r="F66" s="3">
-        <v>1755700</v>
-      </c>
       <c r="G66" s="3">
+        <v>1767400</v>
+      </c>
+      <c r="H66" s="3">
         <v>1716200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1511400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1598100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1648900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1690500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1585800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1657900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1603100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2091600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1957200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1940900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1915400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1931100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1886600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1870600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1845800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1834100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1798400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1748000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1706300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1715400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1686700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1197200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1179000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1132000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1181300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1195400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1169400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1174000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1190600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1168300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1047100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1009200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1003100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1011500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>44700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>63200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>68800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E83" s="3">
         <v>33700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-94200</v>
       </c>
-      <c r="F89" s="3">
-        <v>203200</v>
-      </c>
       <c r="G89" s="3">
-        <v>164200</v>
+        <v>198700</v>
       </c>
       <c r="H89" s="3">
+        <v>168700</v>
+      </c>
+      <c r="I89" s="3">
         <v>28400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-145000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>191700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>236500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-81200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>315200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-162300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-105900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-213900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-19000</v>
       </c>
       <c r="I96" s="3">
         <v>-19000</v>
       </c>
       <c r="J96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="K96" s="3">
         <v>-18400</v>
       </c>
       <c r="L96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="M96" s="3">
         <v>-18300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E100" s="3">
         <v>35900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>213300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-198600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-101000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-131200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>145200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-525700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-2100</v>
       </c>
       <c r="F101" s="3">
         <v>-2100</v>
       </c>
       <c r="G101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-423800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>214900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>474600</v>
+      </c>
+      <c r="E8" s="3">
         <v>467100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>466200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>423500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>491200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>449400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>448600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>410900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>477300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>455700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>451700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>411400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>452200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>436500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E9" s="3">
         <v>153900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>150500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>143900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>114400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>119900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>116400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E10" s="3">
         <v>313200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>322800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>280400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>340700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>305500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>328400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>296500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>340700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>319300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>331800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>296600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>332900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>320100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E15" s="3">
         <v>15700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>15000</v>
       </c>
       <c r="F15" s="3">
         <v>15000</v>
       </c>
       <c r="G15" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H15" s="3">
         <v>14800</v>
       </c>
       <c r="I15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J15" s="3">
         <v>12400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>645300</v>
+      </c>
+      <c r="E17" s="3">
         <v>418600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>402800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>419000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>411200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>399000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>391100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>374800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>404500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>390300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>370900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>398900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>388800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>385300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E18" s="3">
         <v>48500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>57500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>65400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="E21" s="3">
         <v>85600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>97000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>113500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>81900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>101500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>87400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>90500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>82800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3300</v>
       </c>
       <c r="L22" s="3">
         <v>3300</v>
       </c>
       <c r="M22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-168200</v>
+      </c>
+      <c r="E23" s="3">
         <v>44700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>56500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>77300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E26" s="3">
         <v>35400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E27" s="3">
         <v>35400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>63200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,20 +1721,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>25000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E33" s="3">
         <v>35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>63200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E35" s="3">
         <v>35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>63200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E41" s="3">
         <v>117400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>169800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>482300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>309400</v>
+      </c>
+      <c r="E43" s="3">
         <v>301500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>281100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>306600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>194800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>236200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>272100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>193500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>198600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>220800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E44" s="3">
         <v>43100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>45000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>44800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>47900</v>
       </c>
       <c r="O44" s="3">
         <v>47900</v>
       </c>
       <c r="P44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>49200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E45" s="3">
         <v>71100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>67400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>68700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>58300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>64700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>124100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>614900</v>
+      </c>
+      <c r="E46" s="3">
         <v>533100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>447200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>491200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>502500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>431400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>448900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>488300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>480000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>475700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>364000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>396800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>359700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>876500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E48" s="3">
         <v>439400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>440600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>439900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>289000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>286200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>286300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>288100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>289900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>273600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>274600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>265300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>252500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>241400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2014500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2250000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2097700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2086900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2059900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2100700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1853900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1902700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1983700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2019200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1908700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1920000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1909500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1906000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E52" s="3">
         <v>102100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>97300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>93300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>93000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3168800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3324600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3082800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3120100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2948800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2911600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2680800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2772100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2839500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2858800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2632800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2667100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2606200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3103000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,72 +2879,76 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E57" s="3">
         <v>63800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>74400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>85100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>90100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>141000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>210900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>6300</v>
       </c>
       <c r="F58" s="3">
         <v>6300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2826,8 +2959,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2844,196 +2977,211 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>824200</v>
+      </c>
+      <c r="E59" s="3">
         <v>742900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>505000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>666400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>791300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>593200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>498500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>631700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>784200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>628400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>431300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>529800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>648700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>579200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>927300</v>
+      </c>
+      <c r="E60" s="3">
         <v>814500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>585600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>732800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>882300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>678300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>570100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>675500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>874300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>833000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>582200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>670800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>787900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>790000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>765700</v>
+      </c>
+      <c r="E61" s="3">
         <v>789600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>788400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>724300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>478800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>633500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>537300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>507500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>360000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>428200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>563000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>551600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>365000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>865700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>542300</v>
+      </c>
+      <c r="E62" s="3">
         <v>523200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>529800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>531000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>406300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>404400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>404100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>415100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>414600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>429300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>440600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>435400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>450200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>435800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2235200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2127300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1903800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1988100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1767400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1716200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1511400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1598100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1648900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1690500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1585800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1657900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1603100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2091600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1780100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1957200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1940900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1915400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1931100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1886600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1870600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1845800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1834100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1798400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1748000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1706300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1715400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1686700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>933600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1197200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1179000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1132000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1181300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1195400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1169400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1174000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1190600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1168300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1047100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1009200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1003100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1011500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E81" s="3">
         <v>35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>63200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E83" s="3">
         <v>34600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E89" s="3">
         <v>188400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-94200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>198700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>168700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-145000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>191700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>236500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-81200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>315200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-162300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-151500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-105900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-213900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>19100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-19000</v>
       </c>
       <c r="J96" s="3">
         <v>-19000</v>
       </c>
       <c r="K96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="L96" s="3">
         <v>-18400</v>
       </c>
       <c r="M96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="N96" s="3">
         <v>-18300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>35900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>213300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-198600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-131200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>145200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-525700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2100</v>
       </c>
       <c r="G101" s="3">
         <v>-2100</v>
       </c>
       <c r="H101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-423800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>214900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>431300</v>
+      </c>
+      <c r="E8" s="3">
         <v>474600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>467100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>466200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>423500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>491200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>449400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>448600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>410900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>477300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>455700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>451700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>411400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>452200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>436500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E9" s="3">
         <v>150600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>153900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>143100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>150500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>116400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E10" s="3">
         <v>324000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>313200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>322800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>280400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>340700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>305500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>328400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>296500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>340700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>319300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>331800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>296600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>332900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>320100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>216900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E15" s="3">
         <v>16700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>15000</v>
       </c>
       <c r="G15" s="3">
         <v>15000</v>
       </c>
       <c r="H15" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="I15" s="3">
         <v>14800</v>
       </c>
       <c r="J15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>401300</v>
+      </c>
+      <c r="E17" s="3">
         <v>645300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>418600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>402800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>419000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>411200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>399000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>391100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>374800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>404500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>390300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>370900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>398900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>388800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>385300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-170700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>65400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-125200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>85600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>113500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>90100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>101500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>87400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>90500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>82800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>5800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3300</v>
       </c>
       <c r="M22" s="3">
         <v>3300</v>
       </c>
       <c r="N22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-168200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>77300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-158000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>63200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-158000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>63200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,20 +1785,20 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>25000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-158000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>63200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-158000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>63200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E41" s="3">
         <v>202500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>115600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>128200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>482300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E43" s="3">
         <v>309400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>301500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>281100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>306600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>194800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>236200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>272100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>212400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>193500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>188700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>220800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E44" s="3">
         <v>43600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>44800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>47900</v>
       </c>
       <c r="P44" s="3">
         <v>47900</v>
       </c>
       <c r="Q44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="R44" s="3">
         <v>49200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E45" s="3">
         <v>59500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>64000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>64700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>124100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E46" s="3">
         <v>614900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>533100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>447200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>491200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>502500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>431400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>448900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>488300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>480000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>475700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>364000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>396800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>359700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>876500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>435300</v>
+      </c>
+      <c r="E48" s="3">
         <v>440700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>439400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>440600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>439900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>289000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>286200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>286300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>288100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>289900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>273600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>274600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>265300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>252500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>241400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2043600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2014500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2250000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2097700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2086900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2059900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1853900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1902700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1983700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2019200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1908700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1920000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1909500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1906000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E52" s="3">
         <v>98600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>93300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>93000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3068900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3168800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3324600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3082800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3120100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2948800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2911600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2680800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2772100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2839500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2858800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2632800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2667100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2606200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3103000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,78 +3010,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E57" s="3">
         <v>93700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>74400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>85100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>71600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>90100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>204600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>141000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>210900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6300</v>
       </c>
       <c r="G58" s="3">
         <v>6300</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>652600</v>
+      </c>
+      <c r="E59" s="3">
         <v>824200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>742900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>505000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>666400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>791300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>593200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>498500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>631700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>784200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>628400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>431300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>529800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>648700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>579200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>716100</v>
+      </c>
+      <c r="E60" s="3">
         <v>927300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>814500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>585600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>732800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>882300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>678300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>570100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>675500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>874300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>833000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>582200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>670800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>787900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>790000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>835800</v>
+      </c>
+      <c r="E61" s="3">
         <v>765700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>789600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>788400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>724300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>478800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>633500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>537300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>507500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>360000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>428200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>563000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>551600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>365000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>865700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>543300</v>
+      </c>
+      <c r="E62" s="3">
         <v>542300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>523200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>529800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>531000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>406300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>404400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>404100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>415100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>414600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>429300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>440600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>435400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>450200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>435800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2095200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2235200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2127300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1903800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1988100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1767400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1716200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1511400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1598100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1648900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1690500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1585800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1657900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1603100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2091600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1780100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1957200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1940900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1915400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1931100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1886600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1870600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1845800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1834100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1798400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1748000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1706300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1715400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1686700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>973700</v>
+      </c>
+      <c r="E76" s="3">
         <v>933600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1197200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1179000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1132000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1181300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1195400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1169400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1174000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1190600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1168300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1047100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1009200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1003100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1011500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-158000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>63200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E83" s="3">
         <v>37300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="E89" s="3">
         <v>199500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>188400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-94200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>198700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>168700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-145000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>191700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>236500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-81200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>315200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-162300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-151500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-105900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-213900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>19100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-19000</v>
       </c>
       <c r="K96" s="3">
         <v>-19000</v>
       </c>
       <c r="L96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="M96" s="3">
         <v>-18400</v>
       </c>
       <c r="N96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-18300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>35900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>213300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-198600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-101000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-131200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>145200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-525700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2100</v>
       </c>
       <c r="H101" s="3">
         <v>-2100</v>
       </c>
       <c r="I101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-101100</v>
+      </c>
+      <c r="E102" s="3">
         <v>85100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-423800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>214900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>482900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>491000</v>
+      </c>
+      <c r="F8" s="3">
         <v>431300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>474600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>467100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>466200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>423500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>491200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>449400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>448600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>410900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>477300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>455700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>451700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>411400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>452200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>436500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>154900</v>
+      </c>
+      <c r="F9" s="3">
         <v>144800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>150600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>153900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>143400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>143100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>150500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>143900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>120200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>114400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>136600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>136400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>119900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>114800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>119300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>116400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>325300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F10" s="3">
         <v>286500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>324000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>313200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>322800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>280400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>340700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>305500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>328400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>296500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>340700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>319300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>331800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>296600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>332900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>320100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1062,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>216900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>10700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>38300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>9100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F15" s="3">
         <v>16900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>16700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>15700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>15000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>15000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>14800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>12300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>11200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>12300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>12500</v>
       </c>
       <c r="S15" s="3">
         <v>12300</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="U15" s="3">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>448600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>421100</v>
+      </c>
+      <c r="F17" s="3">
         <v>401300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>645300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>418600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>402800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>419000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>411200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>399000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>391100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>374800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>404500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>390300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>370900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>398900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>388800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>385300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F18" s="3">
         <v>30000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-170700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>48500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>63400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>50400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>57500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>36100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>72800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>65400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>80800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>63400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>51200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>113100</v>
+      </c>
+      <c r="F21" s="3">
         <v>74700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-125200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>85600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>97000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>43500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>113500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>81900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>90100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>67600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>101500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>87400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>110300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>90500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>82800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3500</v>
       </c>
       <c r="P22" s="3">
         <v>3300</v>
       </c>
       <c r="Q22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F23" s="3">
         <v>29700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-168200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>44700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>56500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>77300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>45200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>56300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>70100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>58300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>79500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>58400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>49000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>13400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-10200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>11800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>14400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F26" s="3">
         <v>16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-158000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>35400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>44700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>63200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>34900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>43800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>26300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>54100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>43800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>9200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>46700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>47400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F27" s="3">
         <v>16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-158000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>35400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>44700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>63200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>34900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>54100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>43800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>9200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>46700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>47400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,29 +1910,35 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>25000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F33" s="3">
         <v>16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-158000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>35400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>44700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>63200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>34900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>43800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>26300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>54100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>68800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>60000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>46700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>47400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F35" s="3">
         <v>16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-158000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>35400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>44700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>63200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>34900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>43800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>26300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>54100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>68800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>60000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>46700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>47400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>86100</v>
+      </c>
+      <c r="F41" s="3">
         <v>101400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>202500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>117400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>107700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>104000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>92900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>132800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>115600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>113100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>169800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>128200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>72900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>84100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>58500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>482300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>278900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>273300</v>
+      </c>
+      <c r="F43" s="3">
         <v>282400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>309400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>301500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>235500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>281100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>306600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>194800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>236200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>272100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>212400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>239600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>193500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>198600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>188700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>220800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F44" s="3">
         <v>45100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>43600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>43100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>45000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>44800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>35600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>35300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>35100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>36600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>39500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>43800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>43500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>47900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>47900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>49200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F45" s="3">
         <v>59200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>59500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>71100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>58900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>61300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>67400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>68700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>62000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>66500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>58300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>54100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>66200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>64700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>124100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>495700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>477300</v>
+      </c>
+      <c r="F46" s="3">
         <v>488000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>614900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>533100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>447200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>491200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>502500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>431400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>448900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>488300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>480000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>475700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>364000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>396800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>359700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>876500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>409900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>427200</v>
+      </c>
+      <c r="F48" s="3">
         <v>435300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>440700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>439400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>440600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>439900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>289000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>286200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>286300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>288100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>289900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>273600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>274600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>265300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>252500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>241400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2414200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2014000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2043600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2014500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2250000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2097700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2086900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2059900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2100700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1853900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1902700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1983700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2019200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1908700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1920000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1909500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1906000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,22 +3044,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>102100</v>
+        <v>106500</v>
       </c>
       <c r="E52" s="3">
-        <v>98600</v>
+        <v>102000</v>
       </c>
       <c r="F52" s="3">
         <v>102100</v>
       </c>
       <c r="G52" s="3">
-        <v>97300</v>
+        <v>98600</v>
       </c>
       <c r="H52" s="3">
         <v>102100</v>
@@ -2834,37 +3074,43 @@
         <v>97300</v>
       </c>
       <c r="J52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>97300</v>
+      </c>
+      <c r="L52" s="3">
         <v>93300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>91700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>93000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>85800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>90300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>85500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>85000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>84500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>79200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3426400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3020400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3068900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3168800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3324600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3082800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3120100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2948800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2911600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2680800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2772100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2839500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2858800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2632800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2667100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2606200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3103000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,87 +3271,95 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F57" s="3">
         <v>52600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>93700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>63800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>74400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>60200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>91000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>85100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>71600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>90100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>204600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>150900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>141000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>139200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>210900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6300</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3099,11 +3367,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3117,220 +3385,250 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>756600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>567300</v>
+      </c>
+      <c r="F59" s="3">
         <v>652600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>824200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>742900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>505000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>666400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>791300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>593200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>498500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>631700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>784200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>628400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>431300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>529800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>648700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>579200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>842100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>634700</v>
+      </c>
+      <c r="F60" s="3">
         <v>716100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>927300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>814500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>585600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>732800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>882300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>678300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>570100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>675500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>874300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>833000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>582200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>670800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>787900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>790000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>948200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>825200</v>
+      </c>
+      <c r="F61" s="3">
         <v>835800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>765700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>789600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>788400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>724300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>478800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>633500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>537300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>507500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>360000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>428200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>563000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>551600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>365000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>865700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>572200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>540200</v>
+      </c>
+      <c r="F62" s="3">
         <v>543300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>542300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>523200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>529800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>531000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>406300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>404400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>404100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>415100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>414600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>429300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>440600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>435400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>450200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>435800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2362600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2095200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2235200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2127300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1903800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1988100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1767400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1716200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1511400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1598100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1648900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1690500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1585800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1657900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1603100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2091600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1827900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1775800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1780100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1957200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1940900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1915400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1931100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1886600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1870600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1845800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1834100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1798400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1748000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1706300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1715400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1686700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1063800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1020200</v>
+      </c>
+      <c r="F76" s="3">
         <v>973700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>933600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1197200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1179000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1132000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1181300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1195400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1169400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1174000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1190600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1168300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1047100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1009200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1003100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1011500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F81" s="3">
         <v>16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-158000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>35400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>44700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>63200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>34900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>43800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>26300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>54100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>68800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>60000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>46700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>47400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F83" s="3">
         <v>40400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>37300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>33700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>33500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>31800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>31300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>30200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>30700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>25900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>31200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>28500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>28900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-120800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>199500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>188400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-94200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>198700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>168700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-145000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>191700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>236500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>35400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>85800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>315200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-22700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-27200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-35300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-162300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-29500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-330700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-28300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-60800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-151500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-28500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-105900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-42400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-213900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-23200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-42800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-57100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-37100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-56700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,52 +5326,58 @@
         <v>-19300</v>
       </c>
       <c r="E96" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-19000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-19100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-19200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-19300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-18800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-18900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-19000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-19000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-18400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-18300</v>
       </c>
       <c r="P96" s="3">
         <v>-18400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-17900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-17800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="F100" s="3">
         <v>43500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-48200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-28400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>35900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>213300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-198600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>60500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>119200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-101000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-131200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>145200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-525700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-52300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F101" s="3">
         <v>4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>8700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-101100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>85100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-39800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>17300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-56700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>41500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>55300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>26200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-423800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>214900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>536300</v>
+      </c>
+      <c r="E8" s="3">
         <v>482900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>491000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>431300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>474600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>467100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>466200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>423500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>449400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>448600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>410900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>477300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>455700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>451700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>411400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>452200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>436500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E9" s="3">
         <v>157600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>154900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>144800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>150600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>150500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>143900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>114800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>119300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>116400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>368300</v>
+      </c>
+      <c r="E10" s="3">
         <v>325300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>336100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>286500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>324000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>322800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>280400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>340700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>305500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>328400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>296500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>340700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>319300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>331800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>296600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>332900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>320100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E14" s="3">
         <v>20700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>216900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>38300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E15" s="3">
         <v>19000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>17200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>15700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15000</v>
       </c>
       <c r="J15" s="3">
         <v>15000</v>
       </c>
       <c r="K15" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="L15" s="3">
         <v>14800</v>
       </c>
       <c r="M15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N15" s="3">
         <v>12400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E17" s="3">
         <v>448600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>421100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>401300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>645300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>418600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>402800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>419000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>411200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>399000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>391100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>374800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>404500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>390300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>370900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>398900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>388800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>385300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E18" s="3">
         <v>34300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>69900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-170700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>72800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E21" s="3">
         <v>73700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>113100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-125200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>85600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>97000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>113500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>101500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>87400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>90500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>82800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3300</v>
       </c>
       <c r="P22" s="3">
         <v>3300</v>
       </c>
       <c r="Q22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E23" s="3">
         <v>27400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>68500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-168200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>79500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E26" s="3">
         <v>22200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>68400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-158000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E27" s="3">
         <v>22200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>68400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-158000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1916,20 +1976,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>25000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E33" s="3">
         <v>22200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>68400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-158000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>68800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E35" s="3">
         <v>22200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>68400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-158000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>68800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E41" s="3">
         <v>91300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>113100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>128200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>482300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E43" s="3">
         <v>278900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>273300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>282400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>309400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>301500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>235500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>281100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>306600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>194800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>236200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>272100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>212400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>193500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>198600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>188700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>220800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E44" s="3">
         <v>40700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>45100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>45000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>44800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>47900</v>
       </c>
       <c r="S44" s="3">
         <v>47900</v>
       </c>
       <c r="T44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="U44" s="3">
         <v>49200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E45" s="3">
         <v>84800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>71100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>67400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>64000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>64700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>124100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>526300</v>
+      </c>
+      <c r="E46" s="3">
         <v>495700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>477300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>488000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>614900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>533100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>447200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>491200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>502500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>431400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>448900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>488300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>480000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>475700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>364000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>396800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>359700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>876500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E48" s="3">
         <v>409900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>427200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>435300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>440700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>439400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>440600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>439900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>289000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>286200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>286300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>288100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>289900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>273600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>274600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>265300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>252500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>241400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2408700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2414200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2014000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2043600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2014500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2250000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2097700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2086900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2059900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2100700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1853900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1902700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1983700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2019200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1908700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1920000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1909500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1906000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E52" s="3">
         <v>106500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>93300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>93000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>85500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>84500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>79200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3446400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3426400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3020400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3068900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3168800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3324600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3082800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3120100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2948800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2911600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2680800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2772100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2839500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2858800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2632800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2667100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2606200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3103000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E57" s="3">
         <v>72900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>93700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>74400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>85100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>71600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>90100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>204600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>150900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>141000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>139200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>210900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,25 +3477,25 @@
         <v>12500</v>
       </c>
       <c r="F58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G58" s="3">
         <v>10900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6300</v>
       </c>
       <c r="J58" s="3">
         <v>6300</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3373,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3391,244 +3524,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>880700</v>
+      </c>
+      <c r="E59" s="3">
         <v>756600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>567300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>652600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>824200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>742900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>505000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>666400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>791300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>593200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>498500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>631700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>784200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>628400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>431300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>529800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>648700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>579200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>989000</v>
+      </c>
+      <c r="E60" s="3">
         <v>842100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>634700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>716100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>927300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>814500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>585600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>732800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>882300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>678300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>570100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>675500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>874300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>833000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>582200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>670800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>787900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>790000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>809100</v>
+      </c>
+      <c r="E61" s="3">
         <v>948200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>825200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>835800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>765700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>789600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>788400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>724300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>478800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>633500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>537300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>507500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>360000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>428200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>563000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>551600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>365000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>865700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>557100</v>
+      </c>
+      <c r="E62" s="3">
         <v>572200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>540200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>543300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>542300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>523200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>529800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>531000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>406300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>404400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>404100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>415100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>414600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>429300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>440600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>435400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>450200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>435800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2355100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2362600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2095200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2235200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2127300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1903800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1988100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1767400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1716200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1511400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1598100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1648900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1690500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1585800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1657900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1603100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2091600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1850100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1827900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1825000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1775800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1780100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1957200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1940900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1915400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1931100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1886600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1870600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1845800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1834100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1798400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1748000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1706300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1715400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1686700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1091300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1063800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1020200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>973700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>933600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1197200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1179000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1132000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1181300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1195400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1169400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1174000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1190600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1168300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1047100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1009200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1003100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1011500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E81" s="3">
         <v>22200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>68400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-158000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>68800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E83" s="3">
         <v>41400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E89" s="3">
         <v>231400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-120800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-94200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>198700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>168700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-145000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>191700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>236500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-81200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>85800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>315200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-162300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-330700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-60800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-151500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-105900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-213900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>19100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-56700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-19200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-19000</v>
       </c>
       <c r="N96" s="3">
         <v>-19000</v>
       </c>
       <c r="O96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="P96" s="3">
         <v>-18400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-18300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E100" s="3">
         <v>97200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>35900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>213300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-198600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>119200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-101000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-131200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>145200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-525700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-52300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2100</v>
       </c>
       <c r="K101" s="3">
         <v>-2100</v>
       </c>
       <c r="L101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-101100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>85100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-56700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-423800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>214900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E8" s="3">
         <v>536300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>482900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>491000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>431300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>474600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>467100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>466200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>423500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>491200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>449400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>448600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>410900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>477300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>455700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>451700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>411400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>452200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>436500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E9" s="3">
         <v>168000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>154900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>144800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>150600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>153900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>150500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>143900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>119900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>114800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>119300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>116400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E10" s="3">
         <v>368300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>325300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>336100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>286500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>324000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>322800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>340700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>305500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>328400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>296500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>340700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>319300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>331800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>296600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>332900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>320100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>8500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>216900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>38300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E15" s="3">
         <v>21600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>15000</v>
       </c>
       <c r="K15" s="3">
         <v>15000</v>
       </c>
       <c r="L15" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="M15" s="3">
         <v>14800</v>
       </c>
       <c r="N15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="O15" s="3">
         <v>12400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>11200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>447400</v>
+      </c>
+      <c r="E17" s="3">
         <v>485000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>448600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>421100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>401300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>645300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>418600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>402800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>419000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>411200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>399000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>391100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>374800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>404500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>390300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>370900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>398900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>388800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>385300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E18" s="3">
         <v>51300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-170700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E21" s="3">
         <v>98600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-125200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>85600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>97000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>113500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>90100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>101500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>87400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>110300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>90500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>82800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3300</v>
       </c>
       <c r="Q22" s="3">
         <v>3300</v>
       </c>
       <c r="R22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E23" s="3">
         <v>50300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-168200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>79500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E26" s="3">
         <v>41300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-158000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>41300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-158000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1979,20 +2040,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>25000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>41300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>68400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-158000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>41300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>68400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-158000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E41" s="3">
         <v>93800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>101400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>202500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>113100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>128200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>482300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E43" s="3">
         <v>311600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>278900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>273300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>282400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>309400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>301500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>235500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>281100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>306600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>194800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>236200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>272100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>193500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>198600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>188700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>220800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E44" s="3">
         <v>42500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>45000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>47900</v>
       </c>
       <c r="T44" s="3">
         <v>47900</v>
       </c>
       <c r="U44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="V44" s="3">
         <v>49200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E45" s="3">
         <v>78400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>71100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>67400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>64000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>66200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>64700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>124100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>478700</v>
+      </c>
+      <c r="E46" s="3">
         <v>526300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>495700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>477300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>488000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>614900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>533100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>447200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>491200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>502500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>431400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>448900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>488300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>480000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>475700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>364000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>396800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>359700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>876500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>395600</v>
+      </c>
+      <c r="E48" s="3">
         <v>403700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>409900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>427200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>435300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>440700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>439400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>440600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>439900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>289000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>286200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>286300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>288100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>289900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>273600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>274600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>265300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>252500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>241400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2373900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2408700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2414200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2014000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2043600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2014500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2250000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2097700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2086900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2059900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2100700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1853900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1902700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1983700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2019200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1908700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1920000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1909500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1906000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E52" s="3">
         <v>107700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>93000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>85000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>84500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3362800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3446400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3426400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3020400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3068900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3168800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3324600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3082800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3120100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2948800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2911600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2680800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2772100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2839500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2858800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2632800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2667100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2606200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3103000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E57" s="3">
         <v>95800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>93700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>91000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>85100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>90100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>204600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>150900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>141000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>210900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,25 +3614,25 @@
         <v>12500</v>
       </c>
       <c r="G58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H58" s="3">
         <v>10900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>6300</v>
       </c>
       <c r="K58" s="3">
         <v>6300</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,256 +3661,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>688400</v>
+      </c>
+      <c r="E59" s="3">
         <v>880700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>756600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>567300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>652600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>824200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>742900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>505000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>666400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>791300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>593200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>498500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>631700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>784200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>628400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>431300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>529800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>648700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>579200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>763100</v>
+      </c>
+      <c r="E60" s="3">
         <v>989000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>842100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>634700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>716100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>927300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>814500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>585600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>732800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>882300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>678300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>570100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>675500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>874300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>833000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>582200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>670800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>787900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>790000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E61" s="3">
         <v>809100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>948200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>825200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>835800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>765700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>789600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>788400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>724300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>478800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>633500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>537300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>507500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>360000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>428200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>563000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>551600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>365000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>865700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E62" s="3">
         <v>557100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>572200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>540200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>543300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>542300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>523200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>529800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>531000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>406300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>404400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>404100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>415100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>414600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>429300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>440600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>435400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>450200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>435800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2284900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2355100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2362600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2095200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2235200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2127300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1903800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1988100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1767400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1716200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1511400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1598100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1648900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1690500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1585800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1657900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1603100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2091600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1844600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1850100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1827900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1825000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1775800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1780100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1957200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1940900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1915400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1931100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1886600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1870600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1845800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1834100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1798400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1748000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1706300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1715400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1686700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1077900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1091300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1063800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1020200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>973700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>933600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1197200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1179000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1132000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1181300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1195400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1169400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1174000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1190600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1168300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1047100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1009200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1003100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1011500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>41300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>68400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-158000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E83" s="3">
         <v>43900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="E89" s="3">
         <v>205100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>231400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-120800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-94200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>168700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-145000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>191700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>236500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-81200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>85800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>315200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-162300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-330700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-151500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-213900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>19100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-19100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-19000</v>
       </c>
       <c r="O96" s="3">
         <v>-19000</v>
       </c>
       <c r="P96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="Q96" s="3">
         <v>-18400</v>
       </c>
       <c r="R96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-18300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-162900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>97200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>35900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>213300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-198600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>119200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-131200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>145200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-525700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-52300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2100</v>
       </c>
       <c r="L101" s="3">
         <v>-2100</v>
       </c>
       <c r="M101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>85100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-56700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-423800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>214900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>81500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JW.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>JW.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>515900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>533000</v>
+      </c>
+      <c r="F8" s="3">
         <v>488400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>536300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>482900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>491000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>431300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>474600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>467100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>466200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>423500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>491200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>449400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>448600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>410900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>477300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>455700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>451700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>411400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>452200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>436500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>425600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F9" s="3">
         <v>166000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>168000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>157600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>154900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>144800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>150600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>153900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>143400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>143100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>150500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>143900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>120200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>114400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>136600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>136400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>119900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>114800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>119300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>116400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>358200</v>
+      </c>
+      <c r="F10" s="3">
         <v>322400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>368300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>325300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>336100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>286500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>324000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>313200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>322800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>280400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>340700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>305500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>328400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>296500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>340700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>319300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>331800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>296600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>332900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>320100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1141,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>8500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>20700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>216900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>38300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>9100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F15" s="3">
         <v>21200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>21600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>17200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>16900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>16700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>15700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>15000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>15000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>14800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>12400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>12300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>12200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>11200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>12600</v>
-      </c>
-      <c r="U15" s="3">
-        <v>12300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>12500</v>
       </c>
       <c r="W15" s="3">
         <v>12300</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>459100</v>
+      </c>
+      <c r="F17" s="3">
         <v>447400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>485000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>448600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>421100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>401300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>645300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>418600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>402800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>419000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>411200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>399000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>391100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>374800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>404500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>390300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>370900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>398900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>388800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>385300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>377900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F18" s="3">
         <v>41000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>51300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>34300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>69900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>30000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-170700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>48500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>63400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>80000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>50400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>57500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>36100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>72800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>65400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>80800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>12500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>63400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>51200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1480,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>121100</v>
+      </c>
+      <c r="F21" s="3">
         <v>94100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>98600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>73700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>113100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>74700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-125200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>85600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>97000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>43500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>113500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>81900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>90100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>67600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>101500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>87400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>110300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>40500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>90500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>82800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4900</v>
       </c>
       <c r="G22" s="3">
         <v>4500</v>
       </c>
       <c r="H22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3500</v>
       </c>
       <c r="T22" s="3">
         <v>3300</v>
       </c>
       <c r="U22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W22" s="3">
         <v>3600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>70600</v>
+      </c>
+      <c r="F23" s="3">
         <v>44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>50300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>68500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>29700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-168200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>56500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>77300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>45200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>56300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>34100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>70100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>58300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>79500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>58400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>49000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F24" s="3">
         <v>30200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-10200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>14400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>54900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F26" s="3">
         <v>13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>41300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>68400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-158000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>35400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>44700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>34900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>43800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>26300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>54100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>43800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>60000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>46700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>47400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F27" s="3">
         <v>13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>41300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>22200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>68400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>16300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-158000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>35400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>44700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>63200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>26300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>54100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>43800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>60000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>46700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>47400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,11 +2150,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2043,29 +2165,35 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>25000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F33" s="3">
         <v>13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>41300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>22200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>68400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>16300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-158000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>35400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>44700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>63200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>26300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>54100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>68800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>60000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>46700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>47400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F35" s="3">
         <v>13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>41300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>22200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>68400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>16300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-158000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>35400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>44700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>63200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>26300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>54100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>68800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>60000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>46700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>47400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F41" s="3">
         <v>83000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>93800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>91300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>86100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>101400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>202500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>107700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>104000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>92900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>132800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>115600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>113100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>169800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>128200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>72900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>84100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>58500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>482300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>267400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>291900</v>
+      </c>
+      <c r="F43" s="3">
         <v>284600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>311600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>278900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>273300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>282400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>309400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>301500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>235500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>281100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>306600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>194800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>236200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>272100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>212400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>239600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>193500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>198600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>188700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>220800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>212600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F44" s="3">
         <v>40400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>42500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>40700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>42200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>45100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>43600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>43100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>45000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>44800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>35600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>35300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>35100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>36600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>39500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>43800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>43500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>47900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>47900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>49200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>51800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F45" s="3">
         <v>70700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>78400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>84800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>75800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>59200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>59500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>71100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>58900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>67400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>68700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>62000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>66500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>58300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>64000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>54100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>66200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>64700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>124100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>147800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>491600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500500</v>
+      </c>
+      <c r="F46" s="3">
         <v>478700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>526300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>495700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>477300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>488000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>614900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>533100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>447200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>491200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>502500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>431400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>448900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>488300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>480000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>475700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>364000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>396800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>359700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>876500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3239,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>390100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>393500</v>
+      </c>
+      <c r="F48" s="3">
         <v>395600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>403700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>409900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>427200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>435300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>440700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>439400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>440600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>439900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>289000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>286200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>286300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>288100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>289900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>273600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>274600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>265300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>252500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>241400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>248300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2377700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="F49" s="3">
         <v>2373900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2408700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2414200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2014000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2043600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2014500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2250000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2097700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2086900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2059900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2100700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1853900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1902700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1983700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2019200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1908700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1920000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1909500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1906000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1846000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,34 +3523,40 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>118300</v>
+      </c>
+      <c r="F52" s="3">
         <v>114600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>107700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>106500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>102000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>102100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>98600</v>
       </c>
       <c r="J52" s="3">
         <v>102100</v>
       </c>
       <c r="K52" s="3">
-        <v>97300</v>
+        <v>98600</v>
       </c>
       <c r="L52" s="3">
         <v>102100</v>
@@ -3325,37 +3565,43 @@
         <v>97300</v>
       </c>
       <c r="N52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>97300</v>
+      </c>
+      <c r="P52" s="3">
         <v>93300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>91700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>93000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>85800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>90300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>85500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>85000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>84500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>79200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>79700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3378000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3362800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3446400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3426400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3020400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3068900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3168800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3324600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3082800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3120100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2948800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2911600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2680800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2772100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2839500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2858800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2632800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2667100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2606200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3103000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2853500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,78 +3794,86 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F57" s="3">
         <v>62200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>95800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>72900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>54900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>52600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>93700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>63800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>74400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>60200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>91000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>85100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>43800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>90100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>204600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>150900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>141000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>139200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>210900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12500</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3">
         <v>12500</v>
@@ -3617,28 +3885,28 @@
         <v>12500</v>
       </c>
       <c r="H58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J58" s="3">
         <v>10900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3646,11 +3914,11 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3664,268 +3932,298 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>729100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>580700</v>
+      </c>
+      <c r="F59" s="3">
         <v>688400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>880700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>756600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>567300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>652600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>824200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>742900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>505000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>666400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>791300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>593200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>498500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>631700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>784200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>628400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>431300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>529800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>648700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>579200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>383800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>821500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>644500</v>
+      </c>
+      <c r="F60" s="3">
         <v>763100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>989000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>842100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>634700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>716100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>927300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>814500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>585600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>732800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>882300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>678300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>570100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>675500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>874300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>833000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>582200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>670800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>787900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>790000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>542800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1032500</v>
+      </c>
+      <c r="F61" s="3">
         <v>952000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>809100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>948200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>825200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>835800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>765700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>789600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>788400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>724300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>478800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>633500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>537300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>507500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>360000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>428200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>563000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>551600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>365000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>865700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>884000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>534900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>562400</v>
+      </c>
+      <c r="F62" s="3">
         <v>569800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>557100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>572200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>540200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>543300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>542300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>523200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>529800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>531000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>406300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>404400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>404100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>415100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>414600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>429300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>440600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>435400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>450200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>435800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>445100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2258500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2239400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2284900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2355100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2362600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2095200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2235200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2127300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1903800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1988100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1767400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1716200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1511400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1598100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1648900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1690500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1585800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1657900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1603100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2091600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1872000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1897300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1881200</v>
+      </c>
+      <c r="F72" s="3">
         <v>1844600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1850100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1827900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1825000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1775800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1780100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1957200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1940900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1915400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1931100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1886600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1870600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1845800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1834100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1798400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1748000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1706300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1715400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1686700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1657000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1106700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1077900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1091300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1063800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1020200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>973700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>933600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1197200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1179000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1132000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1181300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1195400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1169400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1190600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1168300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1047100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1009200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1003100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1011500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>981500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F81" s="3">
         <v>13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>41300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>22200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>68400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>16300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-158000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>35400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>44700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>63200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>26300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>54100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>68800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>60000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>46700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>47400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E83" s="3">
         <v>45500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="G83" s="3">
         <v>43900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>41400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>40100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>40400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>37300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>34600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>33700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>33500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>31800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>31300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>30200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>30700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>28100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>25900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>31200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>28500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>28900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-84800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>205100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>231400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>44200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-120800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>199500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>188400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-94200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>198700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>168700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>28400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>191700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>236500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>35400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-81200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>85800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>315200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-17500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-15400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-16300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-35300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-25500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-28500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-162300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-29500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-40800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-330700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-33400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-28300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-151500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-105900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-42400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-213900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-23200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-42800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-57100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-37100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-40400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>19100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-56700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-167700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,64 +6261,70 @@
         <v>-19300</v>
       </c>
       <c r="E96" s="3">
-        <v>-19100</v>
+        <v>-19300</v>
       </c>
       <c r="F96" s="3">
         <v>-19300</v>
       </c>
       <c r="G96" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="H96" s="3">
         <v>-19300</v>
       </c>
       <c r="I96" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-19100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-19200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-19300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-18800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-18900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-19000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-18400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-18300</v>
       </c>
       <c r="T96" s="3">
         <v>-18400</v>
       </c>
       <c r="U96" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-17900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-17800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F100" s="3">
         <v>99100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-162900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>97200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-24900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>43500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-48200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-28400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>35900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>213300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-198600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>60500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>119200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-101000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-131200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-9800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>145200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-525700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-52300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>211600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>7300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>7200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>8700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-13000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-101100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>85100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-39800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>17300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>41500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>55300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-11300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>26200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-423800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>214900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>81500</v>
       </c>
     </row>
